--- a/Klickabfolge.xlsx
+++ b/Klickabfolge.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vendetta1987\Documents\GitHub\MMProject12\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="202">
   <si>
     <t>SZENE 1</t>
   </si>
@@ -586,6 +591,42 @@
   </si>
   <si>
     <t>&lt;dialog id="szene1.6"&gt;</t>
+  </si>
+  <si>
+    <t>Szene1</t>
+  </si>
+  <si>
+    <t>walkto</t>
+  </si>
+  <si>
+    <t>quiztrigger</t>
+  </si>
+  <si>
+    <t>clickable</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>Bild 1</t>
+  </si>
+  <si>
+    <t>Bild 2</t>
+  </si>
+  <si>
+    <t>Quizschritt</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Bild 3</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -630,7 +671,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,8 +722,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -705,6 +752,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -713,7 +804,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
@@ -733,6 +824,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Erklärender Text" xfId="4" builtinId="53"/>
@@ -746,6 +841,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -794,7 +892,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -829,7 +927,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1040,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1874,12 +1972,203 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="14"/>
+    <col min="2" max="2" width="2" customWidth="1"/>
+    <col min="3" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
